--- a/public/static/files/Mau_Import_Gateway.xlsx
+++ b/public/static/files/Mau_Import_Gateway.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F048137E-5DCB-4132-B011-917F4CCB42B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B9A662-F2DC-4FBC-8164-2991E44E0E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{421E80CA-FE56-4F1B-8F82-1274DBEEC046}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Name1</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E6" sqref="E6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,7 +425,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">

--- a/public/static/files/Mau_Import_Gateway.xlsx
+++ b/public/static/files/Mau_Import_Gateway.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\esdmanagerweb\public\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B9A662-F2DC-4FBC-8164-2991E44E0E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599D5E36-D566-4D37-BFE0-3A0F56F210B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{421E80CA-FE56-4F1B-8F82-1274DBEEC046}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{421E80CA-FE56-4F1B-8F82-1274DBEEC046}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,24 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>FactoryArea</t>
-  </si>
-  <si>
-    <t>Code1</t>
-  </si>
-  <si>
-    <t>Name1</t>
-  </si>
-  <si>
-    <t>Notes</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Mã gateway</t>
+  </si>
+  <si>
+    <t>Tên gateway</t>
+  </si>
+  <si>
+    <t>Tên khu vực quản lý</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>GW_2323</t>
+  </si>
+  <si>
+    <t>Gateway2222</t>
+  </si>
+  <si>
+    <t>gateway</t>
   </si>
 </sst>
 </file>
@@ -404,37 +407,40 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:F6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+    <col min="3" max="3" width="19.90625" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
+      <c r="D5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/public/static/files/Mau_Import_Gateway.xlsx
+++ b/public/static/files/Mau_Import_Gateway.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\esdmanagerweb\public\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599D5E36-D566-4D37-BFE0-3A0F56F210B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FC4207-0816-458A-9703-6848D0B368D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{421E80CA-FE56-4F1B-8F82-1274DBEEC046}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Mã gateway</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Tên gateway</t>
   </si>
   <si>
-    <t>Tên khu vực quản lý</t>
-  </si>
-  <si>
     <t>Ghi chú</t>
   </si>
   <si>
@@ -46,6 +43,12 @@
   </si>
   <si>
     <t>gateway</t>
+  </si>
+  <si>
+    <t>Mã khu vực quản lý</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -426,21 +429,29 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
